--- a/KM5c_data/IODP_Site_U1337.xlsx
+++ b/KM5c_data/IODP_Site_U1337.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>26.28689391</v>
+        <v>26.36</v>
       </c>
       <c r="Q2">
-        <v>1.71310609</v>
+        <v>1.644249301486543</v>
       </c>
       <c r="R2">
-        <v>3.36713271</v>
+        <v>3.298275921486542</v>
       </c>
       <c r="S2">
         <v>1.636363636363637</v>
